--- a/Liste des tâches-2021.xlsx
+++ b/Liste des tâches-2021.xlsx
@@ -1,37 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivier\Desktop\os586357\My Cours\Semestre n2\M2107 - Projet tutoré\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cours_S2_IUT\M2107 - Projet Tutoré\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F1A4BDC-7696-4877-8E17-E4F4C6FCA4CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B84D3800-3B13-4204-A5BE-57A5032DB8DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="107">
   <si>
     <t>Numéro</t>
   </si>
@@ -310,6 +299,48 @@
   </si>
   <si>
     <t>Ecrire ProjectWIndow::Cancel</t>
+  </si>
+  <si>
+    <t>Chef de projet + développeur</t>
+  </si>
+  <si>
+    <t>Visual studio + netbeans</t>
+  </si>
+  <si>
+    <t>Justin</t>
+  </si>
+  <si>
+    <t>Julien</t>
+  </si>
+  <si>
+    <t>Luka</t>
+  </si>
+  <si>
+    <t>Olivier</t>
+  </si>
+  <si>
+    <t>Luka / Julien</t>
+  </si>
+  <si>
+    <t>Justin / Julien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Justin </t>
+  </si>
+  <si>
+    <t>Olivier + Luka</t>
+  </si>
+  <si>
+    <t>Justin + Julien</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>en cours</t>
+  </si>
+  <si>
+    <t>attente</t>
   </si>
 </sst>
 </file>
@@ -683,25 +714,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="44.109375" customWidth="1"/>
-    <col min="3" max="3" width="30.5546875" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="44.140625" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -727,7 +758,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -746,8 +777,14 @@
       <c r="F2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -769,8 +806,14 @@
       <c r="G3" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -792,8 +835,14 @@
       <c r="G4" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H4" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -815,8 +864,14 @@
       <c r="G5" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H5" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -838,8 +893,14 @@
       <c r="G6" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H6" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -861,8 +922,14 @@
       <c r="G7" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H7" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -884,8 +951,14 @@
       <c r="G8" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H8" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -907,8 +980,11 @@
       <c r="G9" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H9" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -930,8 +1006,11 @@
       <c r="G10" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H10" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -953,8 +1032,14 @@
       <c r="G11" s="4">
         <v>101</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H11" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>101</v>
       </c>
@@ -977,7 +1062,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>102</v>
       </c>
@@ -1000,7 +1085,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>103</v>
       </c>
@@ -1023,7 +1108,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>11</v>
       </c>
@@ -1045,8 +1130,11 @@
       <c r="G15" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H15" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>12</v>
       </c>
@@ -1068,8 +1156,11 @@
       <c r="G16" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H16" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>13</v>
       </c>
@@ -1091,8 +1182,11 @@
       <c r="G17" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H17" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>14</v>
       </c>
@@ -1114,8 +1208,11 @@
       <c r="G18" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H18" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>15</v>
       </c>
@@ -1137,8 +1234,11 @@
       <c r="G19" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H19" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>16</v>
       </c>
@@ -1160,8 +1260,11 @@
       <c r="G20" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H20" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>17</v>
       </c>
@@ -1183,8 +1286,11 @@
       <c r="G21" s="4">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H21" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>171</v>
       </c>
@@ -1206,8 +1312,11 @@
       <c r="G22" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H22" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>18</v>
       </c>
@@ -1229,8 +1338,11 @@
       <c r="G23" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H23" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>19</v>
       </c>
@@ -1252,8 +1364,11 @@
       <c r="G24" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H24" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>20</v>
       </c>
@@ -1275,8 +1390,11 @@
       <c r="G25" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H25" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>21</v>
       </c>
@@ -1298,8 +1416,11 @@
       <c r="G26" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H26" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>22</v>
       </c>
@@ -1321,8 +1442,11 @@
       <c r="G27" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H27" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>23</v>
       </c>
@@ -1344,8 +1468,11 @@
       <c r="G28" s="4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H28" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>24</v>
       </c>
@@ -1367,8 +1494,11 @@
       <c r="G29" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H29" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>25</v>
       </c>
@@ -1390,8 +1520,11 @@
       <c r="G30" s="4" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H30" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>26</v>
       </c>
@@ -1413,8 +1546,11 @@
       <c r="G31" s="4" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H31" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>27</v>
       </c>
@@ -1436,8 +1572,11 @@
       <c r="G32" s="4" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H32" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>28</v>
       </c>
@@ -1459,8 +1598,11 @@
       <c r="G33" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H33" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>29</v>
       </c>
@@ -1482,8 +1624,11 @@
       <c r="G34" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H34" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>30</v>
       </c>
@@ -1505,8 +1650,11 @@
       <c r="G35" s="4" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H35" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>31</v>
       </c>
@@ -1528,8 +1676,11 @@
       <c r="G36" s="4" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H36" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>32</v>
       </c>
@@ -1551,8 +1702,11 @@
       <c r="G37" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H37" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>33</v>
       </c>
@@ -1574,8 +1728,11 @@
       <c r="G38" s="4" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H38" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>34</v>
       </c>
@@ -1597,8 +1754,11 @@
       <c r="G39" s="4" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H39" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>35</v>
       </c>
@@ -1620,8 +1780,11 @@
       <c r="G40" s="4">
         <v>18</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H40" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>36</v>
       </c>
@@ -1643,8 +1806,11 @@
       <c r="G41" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H41" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>37</v>
       </c>
@@ -1666,8 +1832,11 @@
       <c r="G42" s="4" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H42" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>38</v>
       </c>
@@ -1689,8 +1858,11 @@
       <c r="G43" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H43" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>39</v>
       </c>
@@ -1712,8 +1884,11 @@
       <c r="G44" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H44" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>40</v>
       </c>
@@ -1735,8 +1910,11 @@
       <c r="G45" s="4" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H45" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>41</v>
       </c>
@@ -1758,8 +1936,11 @@
       <c r="G46" s="4" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H46" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>42</v>
       </c>
@@ -1781,8 +1962,11 @@
       <c r="G47" s="4" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H47" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>43</v>
       </c>
@@ -1804,8 +1988,11 @@
       <c r="G48" s="4" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H48" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>44</v>
       </c>
@@ -1827,8 +2014,11 @@
       <c r="G49" s="4" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H49" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>45</v>
       </c>
@@ -1850,8 +2040,11 @@
       <c r="G50" s="4" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H50" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>46</v>
       </c>
@@ -1873,8 +2066,11 @@
       <c r="G51" s="4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H51" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>47</v>
       </c>
@@ -1896,8 +2092,11 @@
       <c r="G52" s="4" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H52" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>48</v>
       </c>
@@ -1918,6 +2117,9 @@
       </c>
       <c r="G53" s="4">
         <v>171</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1927,6 +2129,66 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <AppVersion xmlns="803c7cd4-d913-4db2-b5bd-533c7c70bae5" xsi:nil="true"/>
+    <Invited_Leaders xmlns="803c7cd4-d913-4db2-b5bd-533c7c70bae5" xsi:nil="true"/>
+    <IsNotebookLocked xmlns="803c7cd4-d913-4db2-b5bd-533c7c70bae5" xsi:nil="true"/>
+    <DefaultSectionNames xmlns="803c7cd4-d913-4db2-b5bd-533c7c70bae5" xsi:nil="true"/>
+    <Invited_Members xmlns="803c7cd4-d913-4db2-b5bd-533c7c70bae5" xsi:nil="true"/>
+    <TeamsChannelId xmlns="803c7cd4-d913-4db2-b5bd-533c7c70bae5" xsi:nil="true"/>
+    <Math_Settings xmlns="803c7cd4-d913-4db2-b5bd-533c7c70bae5" xsi:nil="true"/>
+    <Has_Leaders_Only_SectionGroup xmlns="803c7cd4-d913-4db2-b5bd-533c7c70bae5" xsi:nil="true"/>
+    <Owner xmlns="803c7cd4-d913-4db2-b5bd-533c7c70bae5">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Owner>
+    <NotebookType xmlns="803c7cd4-d913-4db2-b5bd-533c7c70bae5" xsi:nil="true"/>
+    <Leaders xmlns="803c7cd4-d913-4db2-b5bd-533c7c70bae5">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Leaders>
+    <Templates xmlns="803c7cd4-d913-4db2-b5bd-533c7c70bae5" xsi:nil="true"/>
+    <Members xmlns="803c7cd4-d913-4db2-b5bd-533c7c70bae5">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Members>
+    <Member_Groups xmlns="803c7cd4-d913-4db2-b5bd-533c7c70bae5">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Member_Groups>
+    <FolderType xmlns="803c7cd4-d913-4db2-b5bd-533c7c70bae5" xsi:nil="true"/>
+    <LMS_Mappings xmlns="803c7cd4-d913-4db2-b5bd-533c7c70bae5" xsi:nil="true"/>
+    <Is_Collaboration_Space_Locked xmlns="803c7cd4-d913-4db2-b5bd-533c7c70bae5" xsi:nil="true"/>
+    <Self_Registration_Enabled xmlns="803c7cd4-d913-4db2-b5bd-533c7c70bae5" xsi:nil="true"/>
+    <CultureName xmlns="803c7cd4-d913-4db2-b5bd-533c7c70bae5" xsi:nil="true"/>
+    <Distribution_Groups xmlns="803c7cd4-d913-4db2-b5bd-533c7c70bae5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008CBA25562CA84C499AD1E8F7A33FDFF8" ma:contentTypeVersion="25" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="0074f9211d01f2c3da8f07f15f9afb30">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="803c7cd4-d913-4db2-b5bd-533c7c70bae5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0e915c62a5c694c58639a548154d6904" ns2:_="">
     <xsd:import namespace="803c7cd4-d913-4db2-b5bd-533c7c70bae5"/>
@@ -2264,67 +2526,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE64DAE5-33D1-4CD6-A346-C961E0E9B84B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <AppVersion xmlns="803c7cd4-d913-4db2-b5bd-533c7c70bae5" xsi:nil="true"/>
-    <Invited_Leaders xmlns="803c7cd4-d913-4db2-b5bd-533c7c70bae5" xsi:nil="true"/>
-    <IsNotebookLocked xmlns="803c7cd4-d913-4db2-b5bd-533c7c70bae5" xsi:nil="true"/>
-    <DefaultSectionNames xmlns="803c7cd4-d913-4db2-b5bd-533c7c70bae5" xsi:nil="true"/>
-    <Invited_Members xmlns="803c7cd4-d913-4db2-b5bd-533c7c70bae5" xsi:nil="true"/>
-    <TeamsChannelId xmlns="803c7cd4-d913-4db2-b5bd-533c7c70bae5" xsi:nil="true"/>
-    <Math_Settings xmlns="803c7cd4-d913-4db2-b5bd-533c7c70bae5" xsi:nil="true"/>
-    <Has_Leaders_Only_SectionGroup xmlns="803c7cd4-d913-4db2-b5bd-533c7c70bae5" xsi:nil="true"/>
-    <Owner xmlns="803c7cd4-d913-4db2-b5bd-533c7c70bae5">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Owner>
-    <NotebookType xmlns="803c7cd4-d913-4db2-b5bd-533c7c70bae5" xsi:nil="true"/>
-    <Leaders xmlns="803c7cd4-d913-4db2-b5bd-533c7c70bae5">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Leaders>
-    <Templates xmlns="803c7cd4-d913-4db2-b5bd-533c7c70bae5" xsi:nil="true"/>
-    <Members xmlns="803c7cd4-d913-4db2-b5bd-533c7c70bae5">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Members>
-    <Member_Groups xmlns="803c7cd4-d913-4db2-b5bd-533c7c70bae5">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Member_Groups>
-    <FolderType xmlns="803c7cd4-d913-4db2-b5bd-533c7c70bae5" xsi:nil="true"/>
-    <LMS_Mappings xmlns="803c7cd4-d913-4db2-b5bd-533c7c70bae5" xsi:nil="true"/>
-    <Is_Collaboration_Space_Locked xmlns="803c7cd4-d913-4db2-b5bd-533c7c70bae5" xsi:nil="true"/>
-    <Self_Registration_Enabled xmlns="803c7cd4-d913-4db2-b5bd-533c7c70bae5" xsi:nil="true"/>
-    <CultureName xmlns="803c7cd4-d913-4db2-b5bd-533c7c70bae5" xsi:nil="true"/>
-    <Distribution_Groups xmlns="803c7cd4-d913-4db2-b5bd-533c7c70bae5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{815C8453-073C-4C7F-9E49-4F78C0F68D7E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="803c7cd4-d913-4db2-b5bd-533c7c70bae5"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E54F111-4899-45A0-A37D-E1A06DCEA5E6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2340,22 +2560,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE64DAE5-33D1-4CD6-A346-C961E0E9B84B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{815C8453-073C-4C7F-9E49-4F78C0F68D7E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="803c7cd4-d913-4db2-b5bd-533c7c70bae5"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Liste des tâches-2021.xlsx
+++ b/Liste des tâches-2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cours_S2_IUT\M2107 - Projet Tutoré\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B84D3800-3B13-4204-A5BE-57A5032DB8DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3FC1D37-8C26-4C55-BA67-2277FE92E356}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="107">
   <si>
     <t>Numéro</t>
   </si>
@@ -404,7 +404,218 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="21">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -718,7 +929,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -955,7 +1166,7 @@
         <v>95</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -983,6 +1194,9 @@
       <c r="H9" s="3" t="s">
         <v>97</v>
       </c>
+      <c r="I9" s="3" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="10" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -1009,6 +1223,9 @@
       <c r="H10" s="3" t="s">
         <v>97</v>
       </c>
+      <c r="I10" s="3" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="11" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -1061,6 +1278,9 @@
       <c r="G12" s="4">
         <v>2</v>
       </c>
+      <c r="I12" s="3" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="13" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
@@ -1084,6 +1304,9 @@
       <c r="G13" s="4">
         <v>2</v>
       </c>
+      <c r="I13" s="3" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="14" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
@@ -1107,6 +1330,9 @@
       <c r="G14" s="4">
         <v>2</v>
       </c>
+      <c r="I14" s="3" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="15" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
@@ -1133,6 +1359,9 @@
       <c r="H15" s="3" t="s">
         <v>96</v>
       </c>
+      <c r="I15" s="3" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="16" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
@@ -1159,8 +1388,11 @@
       <c r="H16" s="3" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I16" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>13</v>
       </c>
@@ -1185,8 +1417,11 @@
       <c r="H17" s="3" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I17" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>14</v>
       </c>
@@ -1211,8 +1446,11 @@
       <c r="H18" s="3" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I18" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>15</v>
       </c>
@@ -1237,8 +1475,11 @@
       <c r="H19" s="3" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I19" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>16</v>
       </c>
@@ -1263,8 +1504,11 @@
       <c r="H20" s="3" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I20" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>17</v>
       </c>
@@ -1289,8 +1533,11 @@
       <c r="H21" s="3" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I21" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>171</v>
       </c>
@@ -1315,8 +1562,11 @@
       <c r="H22" s="3" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I22" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>18</v>
       </c>
@@ -1341,8 +1591,11 @@
       <c r="H23" s="3" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I23" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>19</v>
       </c>
@@ -1367,8 +1620,11 @@
       <c r="H24" s="3" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I24" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>20</v>
       </c>
@@ -1393,8 +1649,11 @@
       <c r="H25" s="3" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I25" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>21</v>
       </c>
@@ -1419,8 +1678,11 @@
       <c r="H26" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I26" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>22</v>
       </c>
@@ -1445,8 +1707,11 @@
       <c r="H27" s="3" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I27" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>23</v>
       </c>
@@ -1471,8 +1736,11 @@
       <c r="H28" s="3" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I28" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>24</v>
       </c>
@@ -1497,8 +1765,11 @@
       <c r="H29" s="3" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I29" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>25</v>
       </c>
@@ -1523,8 +1794,11 @@
       <c r="H30" s="3" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I30" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>26</v>
       </c>
@@ -1549,8 +1823,11 @@
       <c r="H31" s="3" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I31" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>27</v>
       </c>
@@ -1575,8 +1852,11 @@
       <c r="H32" s="3" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I32" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>28</v>
       </c>
@@ -1601,8 +1881,11 @@
       <c r="H33" s="3" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I33" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>29</v>
       </c>
@@ -1627,8 +1910,11 @@
       <c r="H34" s="3" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I34" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>30</v>
       </c>
@@ -1653,8 +1939,11 @@
       <c r="H35" s="3" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I35" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>31</v>
       </c>
@@ -1679,8 +1968,11 @@
       <c r="H36" s="3" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I36" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>32</v>
       </c>
@@ -1705,8 +1997,11 @@
       <c r="H37" s="3" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I37" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>33</v>
       </c>
@@ -1731,8 +2026,11 @@
       <c r="H38" s="3" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I38" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>34</v>
       </c>
@@ -1757,8 +2055,11 @@
       <c r="H39" s="3" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I39" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>35</v>
       </c>
@@ -1783,8 +2084,11 @@
       <c r="H40" s="3" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I40" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>36</v>
       </c>
@@ -1809,8 +2113,11 @@
       <c r="H41" s="3" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I41" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>37</v>
       </c>
@@ -1835,8 +2142,11 @@
       <c r="H42" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I42" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>38</v>
       </c>
@@ -1861,8 +2171,11 @@
       <c r="H43" s="3" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I43" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>39</v>
       </c>
@@ -1887,8 +2200,11 @@
       <c r="H44" s="3" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I44" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>40</v>
       </c>
@@ -1913,8 +2229,11 @@
       <c r="H45" s="3" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I45" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>41</v>
       </c>
@@ -1939,8 +2258,11 @@
       <c r="H46" s="3" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I46" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>42</v>
       </c>
@@ -1965,8 +2287,11 @@
       <c r="H47" s="3" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I47" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>43</v>
       </c>
@@ -1991,8 +2316,11 @@
       <c r="H48" s="3" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I48" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>44</v>
       </c>
@@ -2017,8 +2345,11 @@
       <c r="H49" s="3" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I49" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>45</v>
       </c>
@@ -2043,8 +2374,11 @@
       <c r="H50" s="3" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I50" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>46</v>
       </c>
@@ -2069,8 +2403,11 @@
       <c r="H51" s="3" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I51" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>47</v>
       </c>
@@ -2095,8 +2432,11 @@
       <c r="H52" s="3" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I52" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>48</v>
       </c>
@@ -2121,10 +2461,33 @@
       <c r="H53" s="3" t="s">
         <v>95</v>
       </c>
+      <c r="I53" s="3" t="s">
+        <v>106</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="I2:I4 I9:I53">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+      <formula>$I$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+      <formula>$I$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I53">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>$I$6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>$I$4</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
